--- a/data/pca/factorExposure/factorExposure_2012-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01706915356556663</v>
+        <v>0.01619254817485669</v>
       </c>
       <c r="C2">
-        <v>0.02935050207285995</v>
+        <v>-0.02438409273743884</v>
       </c>
       <c r="D2">
-        <v>-0.005156905974319103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007434703514587704</v>
+      </c>
+      <c r="E2">
+        <v>-0.01594893954203825</v>
+      </c>
+      <c r="F2">
+        <v>0.01433451829333626</v>
+      </c>
+      <c r="G2">
+        <v>-0.01757579074127146</v>
+      </c>
+      <c r="H2">
+        <v>-0.05094496149750322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07414426464940664</v>
+        <v>0.0881629231117205</v>
       </c>
       <c r="C4">
-        <v>0.0539683331430234</v>
+        <v>-0.04123790182648754</v>
       </c>
       <c r="D4">
-        <v>-0.08156084270940783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06510913090672835</v>
+      </c>
+      <c r="E4">
+        <v>-0.009054477115879984</v>
+      </c>
+      <c r="F4">
+        <v>0.03750548648887871</v>
+      </c>
+      <c r="G4">
+        <v>-0.002674332475432436</v>
+      </c>
+      <c r="H4">
+        <v>0.04159118782505827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1106611612205928</v>
+        <v>0.1199631929842744</v>
       </c>
       <c r="C6">
-        <v>0.05222516576394264</v>
+        <v>-0.03451683972791019</v>
       </c>
       <c r="D6">
-        <v>-0.00144597828637417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01319919832399393</v>
+      </c>
+      <c r="E6">
+        <v>0.01789631039551359</v>
+      </c>
+      <c r="F6">
+        <v>0.05549491992456173</v>
+      </c>
+      <c r="G6">
+        <v>-0.03318736871352016</v>
+      </c>
+      <c r="H6">
+        <v>-0.1188196307584581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.052450258785119</v>
+        <v>0.06458858915223113</v>
       </c>
       <c r="C7">
-        <v>0.02537274482177058</v>
+        <v>-0.01630508801819096</v>
       </c>
       <c r="D7">
-        <v>-0.04422327608186646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04517347104632412</v>
+      </c>
+      <c r="E7">
+        <v>-0.03714302135439436</v>
+      </c>
+      <c r="F7">
+        <v>0.03892624466296559</v>
+      </c>
+      <c r="G7">
+        <v>0.03569256179367092</v>
+      </c>
+      <c r="H7">
+        <v>0.009624364281405106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03991418302431284</v>
+        <v>0.04143925689053116</v>
       </c>
       <c r="C8">
-        <v>0.01488831419787199</v>
+        <v>-0.01095765691189679</v>
       </c>
       <c r="D8">
-        <v>-0.05970488697934719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02322310025613596</v>
+      </c>
+      <c r="E8">
+        <v>-0.02231984129061394</v>
+      </c>
+      <c r="F8">
+        <v>0.05665137930974342</v>
+      </c>
+      <c r="G8">
+        <v>-0.05724463163635034</v>
+      </c>
+      <c r="H8">
+        <v>-0.0071048567040646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06948359801495081</v>
+        <v>0.07993939683010227</v>
       </c>
       <c r="C9">
-        <v>0.04199832850904604</v>
+        <v>-0.02921965626613376</v>
       </c>
       <c r="D9">
-        <v>-0.07056253253565298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06170685136853319</v>
+      </c>
+      <c r="E9">
+        <v>-0.02998163019587596</v>
+      </c>
+      <c r="F9">
+        <v>0.0359090440978936</v>
+      </c>
+      <c r="G9">
+        <v>-0.009702703076087033</v>
+      </c>
+      <c r="H9">
+        <v>0.04998357667760748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02932310578296564</v>
+        <v>0.03386511265906281</v>
       </c>
       <c r="C10">
-        <v>0.02379876093646472</v>
+        <v>-0.04093368592162442</v>
       </c>
       <c r="D10">
-        <v>0.1703301241424613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1716244028095513</v>
+      </c>
+      <c r="E10">
+        <v>-0.04116388261780629</v>
+      </c>
+      <c r="F10">
+        <v>0.05279169625096559</v>
+      </c>
+      <c r="G10">
+        <v>0.02298500355020961</v>
+      </c>
+      <c r="H10">
+        <v>-0.03572689365836414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07291478555115012</v>
+        <v>0.07725957361813347</v>
       </c>
       <c r="C11">
-        <v>0.04447016559434139</v>
+        <v>-0.0262614832295117</v>
       </c>
       <c r="D11">
-        <v>-0.05864345316981098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06248085162624088</v>
+      </c>
+      <c r="E11">
+        <v>0.004928911658608039</v>
+      </c>
+      <c r="F11">
+        <v>0.02949530639749985</v>
+      </c>
+      <c r="G11">
+        <v>-0.0007315776158126146</v>
+      </c>
+      <c r="H11">
+        <v>0.08734497087995723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06028384186452559</v>
+        <v>0.06911395763081793</v>
       </c>
       <c r="C12">
-        <v>0.05177800342106956</v>
+        <v>-0.03729658461611143</v>
       </c>
       <c r="D12">
-        <v>-0.0480032827336553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04747104173346826</v>
+      </c>
+      <c r="E12">
+        <v>-0.01338041326382774</v>
+      </c>
+      <c r="F12">
+        <v>0.02211623939822</v>
+      </c>
+      <c r="G12">
+        <v>-0.003132012772441069</v>
+      </c>
+      <c r="H12">
+        <v>0.04266361645729286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06244091329349027</v>
+        <v>0.06547713580775612</v>
       </c>
       <c r="C13">
-        <v>0.03563571591032168</v>
+        <v>-0.02178509714714682</v>
       </c>
       <c r="D13">
-        <v>-0.06046120306693999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0418855984633699</v>
+      </c>
+      <c r="E13">
+        <v>-0.01662862985884381</v>
+      </c>
+      <c r="F13">
+        <v>0.01066586280192419</v>
+      </c>
+      <c r="G13">
+        <v>0.004575344944023132</v>
+      </c>
+      <c r="H13">
+        <v>0.05534371145434911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03368283102122903</v>
+        <v>0.04056202031913962</v>
       </c>
       <c r="C14">
-        <v>0.0317144823313568</v>
+        <v>-0.02839153137950056</v>
       </c>
       <c r="D14">
-        <v>-0.002990602133354601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.009656920863735664</v>
+      </c>
+      <c r="E14">
+        <v>-0.03093545106958165</v>
+      </c>
+      <c r="F14">
+        <v>0.01464682980383684</v>
+      </c>
+      <c r="G14">
+        <v>-0.005696275292924527</v>
+      </c>
+      <c r="H14">
+        <v>0.06083538945606669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04072575289097268</v>
+        <v>0.04054955348277742</v>
       </c>
       <c r="C15">
-        <v>0.009237186667574929</v>
+        <v>-0.003450366599716533</v>
       </c>
       <c r="D15">
-        <v>-0.01740278066789273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004067990654529501</v>
+      </c>
+      <c r="E15">
+        <v>-0.03417864092244234</v>
+      </c>
+      <c r="F15">
+        <v>0.0003117962926699358</v>
+      </c>
+      <c r="G15">
+        <v>-0.02498848151620482</v>
+      </c>
+      <c r="H15">
+        <v>0.03767141553234426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0618282945174092</v>
+        <v>0.07160415850006654</v>
       </c>
       <c r="C16">
-        <v>0.041369140653353</v>
+        <v>-0.02796918752665916</v>
       </c>
       <c r="D16">
-        <v>-0.04792774020801751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06059644734001546</v>
+      </c>
+      <c r="E16">
+        <v>-0.004097697423893038</v>
+      </c>
+      <c r="F16">
+        <v>0.02732131866080688</v>
+      </c>
+      <c r="G16">
+        <v>0.003544646416042062</v>
+      </c>
+      <c r="H16">
+        <v>0.05349870928069723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06258402687037411</v>
+        <v>0.06360159931329633</v>
       </c>
       <c r="C20">
-        <v>0.02398235618552027</v>
+        <v>-0.009697109977054329</v>
       </c>
       <c r="D20">
-        <v>-0.05362223012726033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03819528246416282</v>
+      </c>
+      <c r="E20">
+        <v>-0.0190126204535093</v>
+      </c>
+      <c r="F20">
+        <v>0.02735712270873494</v>
+      </c>
+      <c r="G20">
+        <v>-0.01445464523127853</v>
+      </c>
+      <c r="H20">
+        <v>0.04673432226693906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02606746961376607</v>
+        <v>0.02624960121800314</v>
       </c>
       <c r="C21">
-        <v>-0.003258108751496657</v>
+        <v>0.009973635612399619</v>
       </c>
       <c r="D21">
-        <v>-0.02753859915302286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02519441857544802</v>
+      </c>
+      <c r="E21">
+        <v>-0.04482541499567159</v>
+      </c>
+      <c r="F21">
+        <v>-0.01465216931484718</v>
+      </c>
+      <c r="G21">
+        <v>-0.008298934058451408</v>
+      </c>
+      <c r="H21">
+        <v>-0.0478738344702185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07838773480505329</v>
+        <v>0.07338428272042181</v>
       </c>
       <c r="C22">
-        <v>0.06045054205389602</v>
+        <v>-0.03906337158060279</v>
       </c>
       <c r="D22">
-        <v>-0.121739897611699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08266870186415493</v>
+      </c>
+      <c r="E22">
+        <v>-0.6000480089493362</v>
+      </c>
+      <c r="F22">
+        <v>-0.1662812058718134</v>
+      </c>
+      <c r="G22">
+        <v>0.07103347558917232</v>
+      </c>
+      <c r="H22">
+        <v>-0.1576702124787499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07934102960038404</v>
+        <v>0.07412631365106823</v>
       </c>
       <c r="C23">
-        <v>0.05917671544401065</v>
+        <v>-0.03751900553947809</v>
       </c>
       <c r="D23">
-        <v>-0.1232617004797305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08360483105863384</v>
+      </c>
+      <c r="E23">
+        <v>-0.5993418572687628</v>
+      </c>
+      <c r="F23">
+        <v>-0.1652885389504435</v>
+      </c>
+      <c r="G23">
+        <v>0.06983589076114835</v>
+      </c>
+      <c r="H23">
+        <v>-0.1533491857485555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07411334755523193</v>
+        <v>0.08093221220302556</v>
       </c>
       <c r="C24">
-        <v>0.05160695062326235</v>
+        <v>-0.0344321664397552</v>
       </c>
       <c r="D24">
-        <v>-0.06073843098420437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06070678418556347</v>
+      </c>
+      <c r="E24">
+        <v>-0.01723940303585819</v>
+      </c>
+      <c r="F24">
+        <v>0.03657405857028526</v>
+      </c>
+      <c r="G24">
+        <v>-0.01296816547336948</v>
+      </c>
+      <c r="H24">
+        <v>0.05093452159261838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07344888461579592</v>
+        <v>0.07897905472961095</v>
       </c>
       <c r="C25">
-        <v>0.05460239918467943</v>
+        <v>-0.03716783428621829</v>
       </c>
       <c r="D25">
-        <v>-0.06722309594412569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05254709765600685</v>
+      </c>
+      <c r="E25">
+        <v>-0.01963348244069107</v>
+      </c>
+      <c r="F25">
+        <v>0.02748790129295501</v>
+      </c>
+      <c r="G25">
+        <v>-0.02041951850522159</v>
+      </c>
+      <c r="H25">
+        <v>0.05530724809950646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04584252322587294</v>
+        <v>0.04777954187481451</v>
       </c>
       <c r="C26">
-        <v>0.01045826040867477</v>
+        <v>-0.003491344036782153</v>
       </c>
       <c r="D26">
-        <v>-0.01287801522240871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01732060519676132</v>
+      </c>
+      <c r="E26">
+        <v>-0.04725652683968865</v>
+      </c>
+      <c r="F26">
+        <v>0.02827982885440304</v>
+      </c>
+      <c r="G26">
+        <v>0.007968807611260566</v>
+      </c>
+      <c r="H26">
+        <v>0.05934985094290904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05228934807297547</v>
+        <v>0.06121240185526895</v>
       </c>
       <c r="C28">
-        <v>0.06510915146706306</v>
+        <v>-0.08776811103973414</v>
       </c>
       <c r="D28">
-        <v>0.3110435071736645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3058105539794569</v>
+      </c>
+      <c r="E28">
+        <v>-0.0330634316943114</v>
+      </c>
+      <c r="F28">
+        <v>0.05455498507800764</v>
+      </c>
+      <c r="G28">
+        <v>-0.02996063047392536</v>
+      </c>
+      <c r="H28">
+        <v>-0.0424287879266467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04207719258589526</v>
+        <v>0.04848466827465552</v>
       </c>
       <c r="C29">
-        <v>0.02923044670582912</v>
+        <v>-0.0253312185798281</v>
       </c>
       <c r="D29">
-        <v>-0.009057537382135513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008669651315401193</v>
+      </c>
+      <c r="E29">
+        <v>-0.06006113943421858</v>
+      </c>
+      <c r="F29">
+        <v>0.009810982976195102</v>
+      </c>
+      <c r="G29">
+        <v>0.009669284454359509</v>
+      </c>
+      <c r="H29">
+        <v>0.07641906727926233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1273537428135139</v>
+        <v>0.1310870544543664</v>
       </c>
       <c r="C30">
-        <v>0.08708184161294304</v>
+        <v>-0.0614654377228481</v>
       </c>
       <c r="D30">
-        <v>-0.1005414366688816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06964300707241788</v>
+      </c>
+      <c r="E30">
+        <v>-0.07917349635799527</v>
+      </c>
+      <c r="F30">
+        <v>-0.007819328210518429</v>
+      </c>
+      <c r="G30">
+        <v>-0.08172530020185645</v>
+      </c>
+      <c r="H30">
+        <v>-0.04209712035583578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04423875726741448</v>
+        <v>0.0491410613620487</v>
       </c>
       <c r="C31">
-        <v>0.02259858085023611</v>
+        <v>-0.01438319019612645</v>
       </c>
       <c r="D31">
-        <v>-0.02183774540281936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02772250895889667</v>
+      </c>
+      <c r="E31">
+        <v>-0.02363142001409653</v>
+      </c>
+      <c r="F31">
+        <v>0.01276621075916313</v>
+      </c>
+      <c r="G31">
+        <v>0.02408788762432237</v>
+      </c>
+      <c r="H31">
+        <v>0.06375114772176638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03872605867784677</v>
+        <v>0.03923116561066164</v>
       </c>
       <c r="C32">
-        <v>0.02823961153635971</v>
+        <v>-0.02283938617408076</v>
       </c>
       <c r="D32">
-        <v>-0.022745855286029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01096696015787235</v>
+      </c>
+      <c r="E32">
+        <v>-0.04940207928979388</v>
+      </c>
+      <c r="F32">
+        <v>-0.008227253757608429</v>
+      </c>
+      <c r="G32">
+        <v>-0.02869137144182237</v>
+      </c>
+      <c r="H32">
+        <v>0.07084114418339132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08459798074455947</v>
+        <v>0.09637333390984955</v>
       </c>
       <c r="C33">
-        <v>0.04167048219495712</v>
+        <v>-0.02724692021040732</v>
       </c>
       <c r="D33">
-        <v>-0.05952570939453763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04474765413328344</v>
+      </c>
+      <c r="E33">
+        <v>-0.01372558256901544</v>
+      </c>
+      <c r="F33">
+        <v>0.007316380199869476</v>
+      </c>
+      <c r="G33">
+        <v>0.006323907941396794</v>
+      </c>
+      <c r="H33">
+        <v>0.05427481661032351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05867884391289097</v>
+        <v>0.06408466354478787</v>
       </c>
       <c r="C34">
-        <v>0.02621731088820282</v>
+        <v>-0.0122610569528744</v>
       </c>
       <c r="D34">
-        <v>-0.05715267750627913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05094143487377988</v>
+      </c>
+      <c r="E34">
+        <v>-0.007672273495889529</v>
+      </c>
+      <c r="F34">
+        <v>0.01863773413288355</v>
+      </c>
+      <c r="G34">
+        <v>0.0008445903348031667</v>
+      </c>
+      <c r="H34">
+        <v>0.06070315999134683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03708322860487217</v>
+        <v>0.03958191439191128</v>
       </c>
       <c r="C35">
-        <v>0.007302375222090414</v>
+        <v>-0.003373805050841499</v>
       </c>
       <c r="D35">
-        <v>-0.01491149676648792</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009490982694360613</v>
+      </c>
+      <c r="E35">
+        <v>-0.01973946695173183</v>
+      </c>
+      <c r="F35">
+        <v>-0.01406653477380279</v>
+      </c>
+      <c r="G35">
+        <v>0.008081509705528251</v>
+      </c>
+      <c r="H35">
+        <v>0.01736115310814021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02279730481910765</v>
+        <v>0.02891251228866644</v>
       </c>
       <c r="C36">
-        <v>0.01715305224824931</v>
+        <v>-0.0145553736062539</v>
       </c>
       <c r="D36">
-        <v>-0.02379466881718044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01628474990040667</v>
+      </c>
+      <c r="E36">
+        <v>-0.03247492370109403</v>
+      </c>
+      <c r="F36">
+        <v>0.02105593258372594</v>
+      </c>
+      <c r="G36">
+        <v>0.008197031106949379</v>
+      </c>
+      <c r="H36">
+        <v>0.0482195876555112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04143299607147651</v>
+        <v>0.0448137176794043</v>
       </c>
       <c r="C38">
-        <v>0.00113113405168941</v>
+        <v>0.003751376813456461</v>
       </c>
       <c r="D38">
-        <v>-0.01736915224275589</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01688107157858608</v>
+      </c>
+      <c r="E38">
+        <v>-0.05337558650382889</v>
+      </c>
+      <c r="F38">
+        <v>-0.003915137473230089</v>
+      </c>
+      <c r="G38">
+        <v>-0.008472227891287945</v>
+      </c>
+      <c r="H38">
+        <v>0.03963844609311457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09293765939543726</v>
+        <v>0.1022869074210618</v>
       </c>
       <c r="C39">
-        <v>0.07114555697262731</v>
+        <v>-0.05027007936590658</v>
       </c>
       <c r="D39">
-        <v>-0.05659177197496425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06261134777778703</v>
+      </c>
+      <c r="E39">
+        <v>-0.004567195863153954</v>
+      </c>
+      <c r="F39">
+        <v>-0.001436972312486642</v>
+      </c>
+      <c r="G39">
+        <v>-0.03545255032491003</v>
+      </c>
+      <c r="H39">
+        <v>0.04597131615032134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07773956044947189</v>
+        <v>0.07140061723195197</v>
       </c>
       <c r="C40">
-        <v>0.03353714820025727</v>
+        <v>-0.01502014047667043</v>
       </c>
       <c r="D40">
-        <v>0.0008996249698205896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.008558896735281117</v>
+      </c>
+      <c r="E40">
+        <v>-0.02055900135767309</v>
+      </c>
+      <c r="F40">
+        <v>-0.05711646394522185</v>
+      </c>
+      <c r="G40">
+        <v>-0.0617534366593303</v>
+      </c>
+      <c r="H40">
+        <v>-0.09285119778017771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04187972941639635</v>
+        <v>0.04477258272304324</v>
       </c>
       <c r="C41">
-        <v>0.004242051800759024</v>
+        <v>0.002725909995281216</v>
       </c>
       <c r="D41">
-        <v>-0.03302256507358726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03234506598252677</v>
+      </c>
+      <c r="E41">
+        <v>5.812715365356206e-05</v>
+      </c>
+      <c r="F41">
+        <v>-0.01464158787330606</v>
+      </c>
+      <c r="G41">
+        <v>-0.009689489311876971</v>
+      </c>
+      <c r="H41">
+        <v>0.03550772535146806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05092980139298112</v>
+        <v>0.05931648990634295</v>
       </c>
       <c r="C43">
-        <v>0.02557136179997606</v>
+        <v>-0.01826386628271906</v>
       </c>
       <c r="D43">
-        <v>-0.01581249647459096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02449971090324288</v>
+      </c>
+      <c r="E43">
+        <v>-0.02084694950186168</v>
+      </c>
+      <c r="F43">
+        <v>0.01260829425997567</v>
+      </c>
+      <c r="G43">
+        <v>0.01754726636694125</v>
+      </c>
+      <c r="H43">
+        <v>0.05684358300467749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09767941248878234</v>
+        <v>0.09854306004737313</v>
       </c>
       <c r="C44">
-        <v>0.08454955601331085</v>
+        <v>-0.06107201719738335</v>
       </c>
       <c r="D44">
-        <v>-0.07731922814252108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05444945746349256</v>
+      </c>
+      <c r="E44">
+        <v>-0.08963059404748021</v>
+      </c>
+      <c r="F44">
+        <v>0.06509223878068994</v>
+      </c>
+      <c r="G44">
+        <v>-0.0290682186422713</v>
+      </c>
+      <c r="H44">
+        <v>0.02295761153395627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02555320301769125</v>
+        <v>0.03420824379106199</v>
       </c>
       <c r="C46">
-        <v>0.01576913626892752</v>
+        <v>-0.01271470497700906</v>
       </c>
       <c r="D46">
-        <v>-0.02486248224503673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03406814593735567</v>
+      </c>
+      <c r="E46">
+        <v>-0.03394278648498334</v>
+      </c>
+      <c r="F46">
+        <v>0.01491607262874525</v>
+      </c>
+      <c r="G46">
+        <v>0.009050704709957388</v>
+      </c>
+      <c r="H46">
+        <v>0.03623659180122802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03070452856129343</v>
+        <v>0.03825717621905836</v>
       </c>
       <c r="C47">
-        <v>0.02422807627637249</v>
+        <v>-0.02040867591990609</v>
       </c>
       <c r="D47">
-        <v>-0.01131834308788363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009546608510480125</v>
+      </c>
+      <c r="E47">
+        <v>-0.04621016833580521</v>
+      </c>
+      <c r="F47">
+        <v>0.01014006703763847</v>
+      </c>
+      <c r="G47">
+        <v>0.04407582541810084</v>
+      </c>
+      <c r="H47">
+        <v>0.02662617374414865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0340346728906393</v>
+        <v>0.03854127849999983</v>
       </c>
       <c r="C48">
-        <v>0.01784005299181007</v>
+        <v>-0.0109320361790708</v>
       </c>
       <c r="D48">
-        <v>-0.03093896885727829</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0195531835594003</v>
+      </c>
+      <c r="E48">
+        <v>-0.04090063874217607</v>
+      </c>
+      <c r="F48">
+        <v>0.007552780468523917</v>
+      </c>
+      <c r="G48">
+        <v>-0.0134007555256466</v>
+      </c>
+      <c r="H48">
+        <v>0.04213105155237495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1615437285815282</v>
+        <v>0.1892998227565048</v>
       </c>
       <c r="C49">
-        <v>0.05031875452336539</v>
+        <v>-0.03140790061869717</v>
       </c>
       <c r="D49">
-        <v>0.007857616190847251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02822418179863088</v>
+      </c>
+      <c r="E49">
+        <v>0.1554007309029763</v>
+      </c>
+      <c r="F49">
+        <v>0.05962897919574893</v>
+      </c>
+      <c r="G49">
+        <v>0.06031435872764447</v>
+      </c>
+      <c r="H49">
+        <v>-0.2284385854840021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04056314984790607</v>
+        <v>0.04642000099366813</v>
       </c>
       <c r="C50">
-        <v>0.02099676024799404</v>
+        <v>-0.01410620682266876</v>
       </c>
       <c r="D50">
-        <v>-0.03978119707003824</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03330006513645122</v>
+      </c>
+      <c r="E50">
+        <v>-0.04284261183992865</v>
+      </c>
+      <c r="F50">
+        <v>0.01514711694339106</v>
+      </c>
+      <c r="G50">
+        <v>0.02257788358071483</v>
+      </c>
+      <c r="H50">
+        <v>0.06595216840673208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02841042091072831</v>
+        <v>0.03053383498326882</v>
       </c>
       <c r="C51">
-        <v>0.01052088490610473</v>
+        <v>-0.00450444033239712</v>
       </c>
       <c r="D51">
-        <v>-0.009722948709552318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01121326256835199</v>
+      </c>
+      <c r="E51">
+        <v>-0.01343192362015286</v>
+      </c>
+      <c r="F51">
+        <v>0.01589081919444525</v>
+      </c>
+      <c r="G51">
+        <v>0.0004136840212552101</v>
+      </c>
+      <c r="H51">
+        <v>0.0003150929202826705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1542245118384276</v>
+        <v>0.1629585049174417</v>
       </c>
       <c r="C53">
-        <v>0.07217367548980035</v>
+        <v>-0.04971963121686853</v>
       </c>
       <c r="D53">
-        <v>-0.009468846159960125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01979189401024102</v>
+      </c>
+      <c r="E53">
+        <v>0.0310165416378002</v>
+      </c>
+      <c r="F53">
+        <v>0.01498442185141614</v>
+      </c>
+      <c r="G53">
+        <v>0.02533896317567585</v>
+      </c>
+      <c r="H53">
+        <v>0.1758767101782982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05782799839165387</v>
+        <v>0.05851600208588063</v>
       </c>
       <c r="C54">
-        <v>0.02462046110680776</v>
+        <v>-0.01389898731278938</v>
       </c>
       <c r="D54">
-        <v>-0.02066917126304402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01532384081964459</v>
+      </c>
+      <c r="E54">
+        <v>-0.04546547322465726</v>
+      </c>
+      <c r="F54">
+        <v>0.007129884414564117</v>
+      </c>
+      <c r="G54">
+        <v>-0.01375337672853826</v>
+      </c>
+      <c r="H54">
+        <v>0.05191908025808705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09973586631488948</v>
+        <v>0.1039545516852358</v>
       </c>
       <c r="C55">
-        <v>0.04960503406299466</v>
+        <v>-0.03330251802604556</v>
       </c>
       <c r="D55">
-        <v>-0.01937339001415494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0237365067733269</v>
+      </c>
+      <c r="E55">
+        <v>-0.0102043786643178</v>
+      </c>
+      <c r="F55">
+        <v>0.01516652966713878</v>
+      </c>
+      <c r="G55">
+        <v>0.01672044235814476</v>
+      </c>
+      <c r="H55">
+        <v>0.1534860365322281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1512071958869035</v>
+        <v>0.1622639193584545</v>
       </c>
       <c r="C56">
-        <v>0.08574467698149707</v>
+        <v>-0.06187525318225451</v>
       </c>
       <c r="D56">
-        <v>-0.01450196870227217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02251687863838261</v>
+      </c>
+      <c r="E56">
+        <v>0.02297399781573905</v>
+      </c>
+      <c r="F56">
+        <v>0.03076673958607535</v>
+      </c>
+      <c r="G56">
+        <v>0.03899548990387654</v>
+      </c>
+      <c r="H56">
+        <v>0.1722779932947563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1301914048831982</v>
+        <v>0.1008411911821568</v>
       </c>
       <c r="C58">
-        <v>-0.001765384640494069</v>
+        <v>0.04264136197349375</v>
       </c>
       <c r="D58">
-        <v>-0.03098389089791306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03353446655919213</v>
+      </c>
+      <c r="E58">
+        <v>-0.141835324084933</v>
+      </c>
+      <c r="F58">
+        <v>-0.00446419835328569</v>
+      </c>
+      <c r="G58">
+        <v>0.01405966264520755</v>
+      </c>
+      <c r="H58">
+        <v>-0.2259560569153368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1218474883323214</v>
+        <v>0.1365581122470425</v>
       </c>
       <c r="C59">
-        <v>0.0724616394006871</v>
+        <v>-0.09408480336372084</v>
       </c>
       <c r="D59">
-        <v>0.3689210152711163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3631307227373697</v>
+      </c>
+      <c r="E59">
+        <v>-0.02718822183778329</v>
+      </c>
+      <c r="F59">
+        <v>0.01545204144434944</v>
+      </c>
+      <c r="G59">
+        <v>0.01854714490380078</v>
+      </c>
+      <c r="H59">
+        <v>0.001141996262045964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.205384562549129</v>
+        <v>0.2342600614323295</v>
       </c>
       <c r="C60">
-        <v>0.09206493920827798</v>
+        <v>-0.06375189302541169</v>
       </c>
       <c r="D60">
-        <v>-0.02110512749548476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04407906451088655</v>
+      </c>
+      <c r="E60">
+        <v>0.09937470005518109</v>
+      </c>
+      <c r="F60">
+        <v>0.05643317468047681</v>
+      </c>
+      <c r="G60">
+        <v>-0.02092663674841814</v>
+      </c>
+      <c r="H60">
+        <v>-0.1456843313986503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08290553285171678</v>
+        <v>0.08945157680752672</v>
       </c>
       <c r="C61">
-        <v>0.05068991592212076</v>
+        <v>-0.03619377185312724</v>
       </c>
       <c r="D61">
-        <v>-0.04354144761527954</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04202612733099296</v>
+      </c>
+      <c r="E61">
+        <v>-0.000482692554483006</v>
+      </c>
+      <c r="F61">
+        <v>0.0008224657945990861</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001002927936043388</v>
+      </c>
+      <c r="H61">
+        <v>0.06227519879008443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1315149904003693</v>
+        <v>0.1386959791353545</v>
       </c>
       <c r="C62">
-        <v>0.05857059927789331</v>
+        <v>-0.03586411128534377</v>
       </c>
       <c r="D62">
-        <v>-0.02049464120972063</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03336104532853641</v>
+      </c>
+      <c r="E62">
+        <v>0.05843302825781239</v>
+      </c>
+      <c r="F62">
+        <v>0.01046479856675688</v>
+      </c>
+      <c r="G62">
+        <v>-0.001193570796619882</v>
+      </c>
+      <c r="H62">
+        <v>0.1792315793255558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05159150003929881</v>
+        <v>0.05130274549937459</v>
       </c>
       <c r="C63">
-        <v>0.02275972357880431</v>
+        <v>-0.01270433301147226</v>
       </c>
       <c r="D63">
-        <v>-0.02272597795719245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0197636643897456</v>
+      </c>
+      <c r="E63">
+        <v>-0.04845893678403249</v>
+      </c>
+      <c r="F63">
+        <v>-0.006843646125462142</v>
+      </c>
+      <c r="G63">
+        <v>-0.01992391575279527</v>
+      </c>
+      <c r="H63">
+        <v>0.0528424387563599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1033738119876023</v>
+        <v>0.1078872176966253</v>
       </c>
       <c r="C64">
-        <v>0.03186370508004185</v>
+        <v>-0.01617992670452285</v>
       </c>
       <c r="D64">
-        <v>-0.04264624190066402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03212545049679217</v>
+      </c>
+      <c r="E64">
+        <v>-0.03117997068531068</v>
+      </c>
+      <c r="F64">
+        <v>0.03787338732464265</v>
+      </c>
+      <c r="G64">
+        <v>-0.04721638237287314</v>
+      </c>
+      <c r="H64">
+        <v>0.04682397971180036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1268952034040861</v>
+        <v>0.1266352505164471</v>
       </c>
       <c r="C65">
-        <v>0.05868519510001956</v>
+        <v>-0.03926459884856176</v>
       </c>
       <c r="D65">
-        <v>0.01244922460266678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.007265501562545484</v>
+      </c>
+      <c r="E65">
+        <v>-0.002543849743718304</v>
+      </c>
+      <c r="F65">
+        <v>0.0539458867094484</v>
+      </c>
+      <c r="G65">
+        <v>-0.06009223876819282</v>
+      </c>
+      <c r="H65">
+        <v>-0.1510446557049637</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1482943720586286</v>
+        <v>0.1547931110508508</v>
       </c>
       <c r="C66">
-        <v>0.06977379067878908</v>
+        <v>-0.04047216853757333</v>
       </c>
       <c r="D66">
-        <v>-0.1093452699182231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09702172225469925</v>
+      </c>
+      <c r="E66">
+        <v>0.02410050316122879</v>
+      </c>
+      <c r="F66">
+        <v>0.007699676985564858</v>
+      </c>
+      <c r="G66">
+        <v>-0.04047320866762287</v>
+      </c>
+      <c r="H66">
+        <v>0.1139263844483443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07457199458475365</v>
+        <v>0.0846734943328645</v>
       </c>
       <c r="C67">
-        <v>0.009658835752695424</v>
+        <v>-0.001329498412030642</v>
       </c>
       <c r="D67">
-        <v>-0.02038655410178973</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02919472556079587</v>
+      </c>
+      <c r="E67">
+        <v>-0.02103197463775772</v>
+      </c>
+      <c r="F67">
+        <v>0.02242670345440717</v>
+      </c>
+      <c r="G67">
+        <v>0.009890446423951841</v>
+      </c>
+      <c r="H67">
+        <v>0.04303271504222637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05834684254249656</v>
+        <v>0.05695788007299971</v>
       </c>
       <c r="C68">
-        <v>0.04586599426720035</v>
+        <v>-0.06446554837735509</v>
       </c>
       <c r="D68">
-        <v>0.2545320132462564</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2687461951050628</v>
+      </c>
+      <c r="E68">
+        <v>-0.0381747674479572</v>
+      </c>
+      <c r="F68">
+        <v>0.01462912429043072</v>
+      </c>
+      <c r="G68">
+        <v>0.01420093328813194</v>
+      </c>
+      <c r="H68">
+        <v>0.008016030507891507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05206586528458718</v>
+        <v>0.05297071741038793</v>
       </c>
       <c r="C69">
-        <v>0.01607677514244594</v>
+        <v>-0.00537847981392813</v>
       </c>
       <c r="D69">
-        <v>-0.02041991096564567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0159746758628527</v>
+      </c>
+      <c r="E69">
+        <v>-0.0263014151029885</v>
+      </c>
+      <c r="F69">
+        <v>-0.007478501965806911</v>
+      </c>
+      <c r="G69">
+        <v>0.02316603404760996</v>
+      </c>
+      <c r="H69">
+        <v>0.04868765252818853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004687112955001849</v>
+        <v>0.0273414226400939</v>
       </c>
       <c r="C70">
-        <v>-0.005594354329491634</v>
+        <v>0.0008621559786884406</v>
       </c>
       <c r="D70">
-        <v>-0.003821973547694088</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006039764203374399</v>
+      </c>
+      <c r="E70">
+        <v>0.02410728192180547</v>
+      </c>
+      <c r="F70">
+        <v>0.01322014911279681</v>
+      </c>
+      <c r="G70">
+        <v>0.02855021025268823</v>
+      </c>
+      <c r="H70">
+        <v>-0.02479738559206203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05768571100761802</v>
+        <v>0.05895133324326997</v>
       </c>
       <c r="C71">
-        <v>0.04631238204319225</v>
+        <v>-0.06948035142637911</v>
       </c>
       <c r="D71">
-        <v>0.2935128490460854</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2942496211741788</v>
+      </c>
+      <c r="E71">
+        <v>-0.03415408105579412</v>
+      </c>
+      <c r="F71">
+        <v>0.04313628951219864</v>
+      </c>
+      <c r="G71">
+        <v>0.001681709044216528</v>
+      </c>
+      <c r="H71">
+        <v>0.009153246325412055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1419808384058631</v>
+        <v>0.1440245983990081</v>
       </c>
       <c r="C72">
-        <v>0.06019916906509196</v>
+        <v>-0.03363675048571888</v>
       </c>
       <c r="D72">
-        <v>-0.001345962179080796</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.000862119343105571</v>
+      </c>
+      <c r="E72">
+        <v>0.0855041416523967</v>
+      </c>
+      <c r="F72">
+        <v>-0.1663801297163356</v>
+      </c>
+      <c r="G72">
+        <v>-0.1194821174157695</v>
+      </c>
+      <c r="H72">
+        <v>0.01645466254138808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2848548060597933</v>
+        <v>0.2895441604292891</v>
       </c>
       <c r="C73">
-        <v>0.09943198699963139</v>
+        <v>-0.03795287030453555</v>
       </c>
       <c r="D73">
-        <v>-0.04524685786835433</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09241031982745743</v>
+      </c>
+      <c r="E73">
+        <v>0.2140302106707764</v>
+      </c>
+      <c r="F73">
+        <v>0.09577288967432131</v>
+      </c>
+      <c r="G73">
+        <v>0.1331881803720082</v>
+      </c>
+      <c r="H73">
+        <v>-0.5089551227662124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08109999313114599</v>
+        <v>0.09178215429207173</v>
       </c>
       <c r="C74">
-        <v>0.07524777905956259</v>
+        <v>-0.06039664276734154</v>
       </c>
       <c r="D74">
-        <v>-0.01102643040026231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.031391342272806</v>
+      </c>
+      <c r="E74">
+        <v>0.004045071966278378</v>
+      </c>
+      <c r="F74">
+        <v>0.0009463052019292502</v>
+      </c>
+      <c r="G74">
+        <v>0.05535513698730514</v>
+      </c>
+      <c r="H74">
+        <v>0.1116777616269076</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09655109202579078</v>
+        <v>0.101542288947008</v>
       </c>
       <c r="C75">
-        <v>0.04880483841361354</v>
+        <v>-0.02710519438934612</v>
       </c>
       <c r="D75">
-        <v>-0.005818268203603827</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01483835184018021</v>
+      </c>
+      <c r="E75">
+        <v>-0.002220149883992462</v>
+      </c>
+      <c r="F75">
+        <v>0.02217803576807317</v>
+      </c>
+      <c r="G75">
+        <v>0.02551420910328241</v>
+      </c>
+      <c r="H75">
+        <v>0.111116035415634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1320313099425157</v>
+        <v>0.141634541778835</v>
       </c>
       <c r="C76">
-        <v>0.08089206054790031</v>
+        <v>-0.05827997264885991</v>
       </c>
       <c r="D76">
-        <v>-0.04304568122733013</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04880797916118995</v>
+      </c>
+      <c r="E76">
+        <v>-0.01584558365219883</v>
+      </c>
+      <c r="F76">
+        <v>0.04573730116621</v>
+      </c>
+      <c r="G76">
+        <v>0.01827608971783232</v>
+      </c>
+      <c r="H76">
+        <v>0.1943780367224522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1172347902631309</v>
+        <v>0.1074168636365172</v>
       </c>
       <c r="C77">
-        <v>0.01060515654808174</v>
+        <v>0.01621122513583593</v>
       </c>
       <c r="D77">
-        <v>-0.06472644546568342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02444970776440999</v>
+      </c>
+      <c r="E77">
+        <v>-0.01976402532764128</v>
+      </c>
+      <c r="F77">
+        <v>0.1001944148713906</v>
+      </c>
+      <c r="G77">
+        <v>-0.890416295739886</v>
+      </c>
+      <c r="H77">
+        <v>-0.08437547893050355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1062385000831479</v>
+        <v>0.1449010998922188</v>
       </c>
       <c r="C78">
-        <v>0.03625762703574131</v>
+        <v>-0.03143781059281062</v>
       </c>
       <c r="D78">
-        <v>-0.08409889802697297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08023179537532295</v>
+      </c>
+      <c r="E78">
+        <v>-0.05549113687482848</v>
+      </c>
+      <c r="F78">
+        <v>0.05224007826867929</v>
+      </c>
+      <c r="G78">
+        <v>-0.08782350250369857</v>
+      </c>
+      <c r="H78">
+        <v>-0.02627849553220185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1479361331611789</v>
+        <v>0.1517789897053951</v>
       </c>
       <c r="C79">
-        <v>0.06655573497460487</v>
+        <v>-0.03922063007960835</v>
       </c>
       <c r="D79">
-        <v>-0.0255231299015979</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02702617968129007</v>
+      </c>
+      <c r="E79">
+        <v>0.01944172121390882</v>
+      </c>
+      <c r="F79">
+        <v>0.0206244888612453</v>
+      </c>
+      <c r="G79">
+        <v>0.04330919183855198</v>
+      </c>
+      <c r="H79">
+        <v>0.1666382579343489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04231833664802997</v>
+        <v>0.04347137537456737</v>
       </c>
       <c r="C80">
-        <v>0.01965627884924424</v>
+        <v>-0.0145933802956503</v>
       </c>
       <c r="D80">
-        <v>-0.02821110806180249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01151863416723062</v>
+      </c>
+      <c r="E80">
+        <v>0.02942945336681958</v>
+      </c>
+      <c r="F80">
+        <v>0.009444828969606321</v>
+      </c>
+      <c r="G80">
+        <v>0.02302631240317307</v>
+      </c>
+      <c r="H80">
+        <v>0.03728260781099169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1181635685221071</v>
+        <v>0.1202489274563279</v>
       </c>
       <c r="C81">
-        <v>0.06018747133315085</v>
+        <v>-0.03716072419216189</v>
       </c>
       <c r="D81">
-        <v>-0.02793018102371906</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0237887339715629</v>
+      </c>
+      <c r="E81">
+        <v>-0.008733216447452143</v>
+      </c>
+      <c r="F81">
+        <v>0.01887459702260643</v>
+      </c>
+      <c r="G81">
+        <v>0.05832858476390496</v>
+      </c>
+      <c r="H81">
+        <v>0.1511978031497687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1303655713859072</v>
+        <v>0.1312765603977551</v>
       </c>
       <c r="C82">
-        <v>0.07217129197980295</v>
+        <v>-0.04903518810071848</v>
       </c>
       <c r="D82">
-        <v>-0.01487067292564199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02721187347956721</v>
+      </c>
+      <c r="E82">
+        <v>0.01940402042097792</v>
+      </c>
+      <c r="F82">
+        <v>0.04979515041300622</v>
+      </c>
+      <c r="G82">
+        <v>0.05627279993046995</v>
+      </c>
+      <c r="H82">
+        <v>0.2112925735052627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07476686784495333</v>
+        <v>0.0856281999494214</v>
       </c>
       <c r="C83">
-        <v>-0.01496894529347673</v>
+        <v>0.02800146363965892</v>
       </c>
       <c r="D83">
-        <v>-0.02848648292040663</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03247693092968205</v>
+      </c>
+      <c r="E83">
+        <v>-0.01755112454167864</v>
+      </c>
+      <c r="F83">
+        <v>0.05697269191358182</v>
+      </c>
+      <c r="G83">
+        <v>0.07797666233308043</v>
+      </c>
+      <c r="H83">
+        <v>-0.05038507454645116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02948951462555474</v>
+        <v>0.03748596779229465</v>
       </c>
       <c r="C84">
-        <v>0.02879724868016179</v>
+        <v>-0.02347812129143836</v>
       </c>
       <c r="D84">
-        <v>-0.02781485080311188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03102019836747893</v>
+      </c>
+      <c r="E84">
+        <v>-0.02777933167325781</v>
+      </c>
+      <c r="F84">
+        <v>-0.05023303960415332</v>
+      </c>
+      <c r="G84">
+        <v>0.06460862240605574</v>
+      </c>
+      <c r="H84">
+        <v>0.00317895218944919</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1210127171023781</v>
+        <v>0.1225566133547853</v>
       </c>
       <c r="C85">
-        <v>0.04663458436994003</v>
+        <v>-0.02434127277693062</v>
       </c>
       <c r="D85">
-        <v>-0.01569848220845358</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01995806688176746</v>
+      </c>
+      <c r="E85">
+        <v>-0.01356176822697016</v>
+      </c>
+      <c r="F85">
+        <v>0.03789651572831856</v>
+      </c>
+      <c r="G85">
+        <v>0.03458133106377374</v>
+      </c>
+      <c r="H85">
+        <v>0.1539530563661414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05397650755541106</v>
+        <v>0.05815365106541552</v>
       </c>
       <c r="C86">
-        <v>0.02238082930565842</v>
+        <v>-0.01232610091855845</v>
       </c>
       <c r="D86">
-        <v>-0.03322615375379681</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03110053992731578</v>
+      </c>
+      <c r="E86">
+        <v>-0.05556219955778001</v>
+      </c>
+      <c r="F86">
+        <v>0.02686221043374487</v>
+      </c>
+      <c r="G86">
+        <v>0.02488741449285448</v>
+      </c>
+      <c r="H86">
+        <v>-0.009054401680180556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1188444677347658</v>
+        <v>0.1224668244586967</v>
       </c>
       <c r="C87">
-        <v>0.06672835510811</v>
+        <v>-0.03519012922751476</v>
       </c>
       <c r="D87">
-        <v>-0.07525184416655717</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07043220858148973</v>
+      </c>
+      <c r="E87">
+        <v>-0.021701833788618</v>
+      </c>
+      <c r="F87">
+        <v>0.01269263615354325</v>
+      </c>
+      <c r="G87">
+        <v>-0.1401427050441704</v>
+      </c>
+      <c r="H87">
+        <v>-0.02824901460490421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05308267746850277</v>
+        <v>0.06064858716649772</v>
       </c>
       <c r="C88">
-        <v>0.02872127907970274</v>
+        <v>-0.02018442580581693</v>
       </c>
       <c r="D88">
-        <v>-0.02207807324184565</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03469662684355607</v>
+      </c>
+      <c r="E88">
+        <v>-0.01658403908992277</v>
+      </c>
+      <c r="F88">
+        <v>0.009336472549451282</v>
+      </c>
+      <c r="G88">
+        <v>-0.003671077832313183</v>
+      </c>
+      <c r="H88">
+        <v>0.05677992746823467</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08776149323867986</v>
+        <v>0.09486722241812863</v>
       </c>
       <c r="C89">
-        <v>0.06848768558703482</v>
+        <v>-0.09281508211931046</v>
       </c>
       <c r="D89">
-        <v>0.3275484899328086</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3477315142442409</v>
+      </c>
+      <c r="E89">
+        <v>-0.07081043889946013</v>
+      </c>
+      <c r="F89">
+        <v>0.07764553286706842</v>
+      </c>
+      <c r="G89">
+        <v>0.01966848976084315</v>
+      </c>
+      <c r="H89">
+        <v>0.003815789756970595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07437710756653654</v>
+        <v>0.07770352310080721</v>
       </c>
       <c r="C90">
-        <v>0.05544976467385536</v>
+        <v>-0.07567373565305517</v>
       </c>
       <c r="D90">
-        <v>0.3098503741934713</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3027866079939564</v>
+      </c>
+      <c r="E90">
+        <v>-0.06680642777853447</v>
+      </c>
+      <c r="F90">
+        <v>0.002214181975856732</v>
+      </c>
+      <c r="G90">
+        <v>0.006290457571045726</v>
+      </c>
+      <c r="H90">
+        <v>0.003439105599949042</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08892361361143061</v>
+        <v>0.09100333712408841</v>
       </c>
       <c r="C91">
-        <v>0.05139094512748384</v>
+        <v>-0.03079822284345022</v>
       </c>
       <c r="D91">
-        <v>-0.02295434533487326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0312795595372045</v>
+      </c>
+      <c r="E91">
+        <v>-0.006956812991010147</v>
+      </c>
+      <c r="F91">
+        <v>0.004276053952730458</v>
+      </c>
+      <c r="G91">
+        <v>0.05174029636300258</v>
+      </c>
+      <c r="H91">
+        <v>0.08389750680979459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07447668400172275</v>
+        <v>0.07770330733218174</v>
       </c>
       <c r="C92">
-        <v>0.07198287298511977</v>
+        <v>-0.09557748043569975</v>
       </c>
       <c r="D92">
-        <v>0.3409697157986498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3438104202848972</v>
+      </c>
+      <c r="E92">
+        <v>-0.03997664649032751</v>
+      </c>
+      <c r="F92">
+        <v>0.04806422521409176</v>
+      </c>
+      <c r="G92">
+        <v>-0.01815464580842244</v>
+      </c>
+      <c r="H92">
+        <v>0.01466198423661779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06519408900691485</v>
+        <v>0.07485504324627409</v>
       </c>
       <c r="C93">
-        <v>0.06247430400949747</v>
+        <v>-0.08908985709943573</v>
       </c>
       <c r="D93">
-        <v>0.3092332113165095</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3061097911655596</v>
+      </c>
+      <c r="E93">
+        <v>-0.02388404020767126</v>
+      </c>
+      <c r="F93">
+        <v>0.03825678731232904</v>
+      </c>
+      <c r="G93">
+        <v>-0.01813860266603941</v>
+      </c>
+      <c r="H93">
+        <v>-0.01149608805634229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1352110666723331</v>
+        <v>0.1290778124922849</v>
       </c>
       <c r="C94">
-        <v>0.04559705343511345</v>
+        <v>-0.01523984845546437</v>
       </c>
       <c r="D94">
-        <v>-0.03614215858859637</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04460119883586534</v>
+      </c>
+      <c r="E94">
+        <v>0.01772838752104649</v>
+      </c>
+      <c r="F94">
+        <v>0.01422345455235144</v>
+      </c>
+      <c r="G94">
+        <v>0.06319998296630812</v>
+      </c>
+      <c r="H94">
+        <v>0.09835241280986763</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1233141967059206</v>
+        <v>0.1285861384724638</v>
       </c>
       <c r="C95">
-        <v>0.02809318097067763</v>
+        <v>-0.000399832184448538</v>
       </c>
       <c r="D95">
-        <v>-0.06512873334096063</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06713171048753956</v>
+      </c>
+      <c r="E95">
+        <v>-0.01449930473839485</v>
+      </c>
+      <c r="F95">
+        <v>0.04054310760583393</v>
+      </c>
+      <c r="G95">
+        <v>-0.01516017045944238</v>
+      </c>
+      <c r="H95">
+        <v>-0.03612553349372614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.220009286327228</v>
+        <v>0.2061331419757856</v>
       </c>
       <c r="C97">
-        <v>0.03932000474086546</v>
+        <v>0.004680971143152883</v>
       </c>
       <c r="D97">
-        <v>0.1052207838403977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08534064624149021</v>
+      </c>
+      <c r="E97">
+        <v>0.2146953764250284</v>
+      </c>
+      <c r="F97">
+        <v>-0.9013261208556854</v>
+      </c>
+      <c r="G97">
+        <v>-0.06635985783976577</v>
+      </c>
+      <c r="H97">
+        <v>0.01579994122031308</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2506107020763623</v>
+        <v>0.2765268758247095</v>
       </c>
       <c r="C98">
-        <v>0.06191421720955718</v>
+        <v>-0.02317996723634553</v>
       </c>
       <c r="D98">
-        <v>-0.0335239732530626</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05359205852600854</v>
+      </c>
+      <c r="E98">
+        <v>0.1798760437651395</v>
+      </c>
+      <c r="F98">
+        <v>0.07020502775183977</v>
+      </c>
+      <c r="G98">
+        <v>0.237386042249252</v>
+      </c>
+      <c r="H98">
+        <v>-0.2505874380020289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4086221391657803</v>
+        <v>0.2712453133425788</v>
       </c>
       <c r="C99">
-        <v>-0.8958005386025008</v>
+        <v>0.932097344831974</v>
       </c>
       <c r="D99">
-        <v>0.04925112657307984</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1582681222617591</v>
+      </c>
+      <c r="E99">
+        <v>-0.07188565360274901</v>
+      </c>
+      <c r="F99">
+        <v>0.05876918964461992</v>
+      </c>
+      <c r="G99">
+        <v>0.02386534908216268</v>
+      </c>
+      <c r="H99">
+        <v>0.07046176146549844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04191885480024912</v>
+        <v>0.04842096989421802</v>
       </c>
       <c r="C101">
-        <v>0.02936500415176504</v>
+        <v>-0.02556828412846617</v>
       </c>
       <c r="D101">
-        <v>-0.009653511406346646</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008831326808362881</v>
+      </c>
+      <c r="E101">
+        <v>-0.0600305914097878</v>
+      </c>
+      <c r="F101">
+        <v>0.00949391664003519</v>
+      </c>
+      <c r="G101">
+        <v>0.01007847309046613</v>
+      </c>
+      <c r="H101">
+        <v>0.07524108721499437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
